--- a/Dokumentation/Burn Down Chart - Semesterprojekt.xlsx
+++ b/Dokumentation/Burn Down Chart - Semesterprojekt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NyMM\Documents\KEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB6A3ED-9A01-4E00-BFBD-CA05C73AFB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414CC992-DDEE-45F0-9E81-3994A6AB5977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D765B50A-073F-4DF5-921F-8A206D21E445}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D765B50A-073F-4DF5-921F-8A206D21E445}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 0" sheetId="1" r:id="rId1"/>
@@ -224,15 +224,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -242,9 +236,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -259,20 +250,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,19 +434,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -542,19 +533,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.8</c:v>
+                  <c:v>26.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.600000000000001</c:v>
+                  <c:v>19.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.400000000000002</c:v>
+                  <c:v>13.199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.200000000000002</c:v>
+                  <c:v>6.5999999999999979</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -5408,8 +5399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFEFF1C-9A54-48D3-B0BC-ACF28631391B}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5421,226 +5412,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="9">
         <v>0</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4">
-        <v>26</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="2">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="5">
-        <v>26</v>
+      <c r="E12" s="3">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>1</v>
       </c>
-      <c r="B13" s="7">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
         <f>C12-B13</f>
-        <v>15</v>
-      </c>
-      <c r="D13" s="7">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1">
         <f>D18/A17</f>
-        <v>5.2</v>
-      </c>
-      <c r="E13" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="E13" s="5">
         <f>E12-D13</f>
-        <v>20.8</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>2</v>
       </c>
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="B14" s="1">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
         <f t="shared" ref="C14:C17" si="0">C13-B14</f>
-        <v>14</v>
-      </c>
-      <c r="D14" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="E14" s="8">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="E14" s="5">
         <f t="shared" ref="E14:E17" si="1">E13-D14</f>
-        <v>15.600000000000001</v>
+        <v>19.799999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>3</v>
       </c>
-      <c r="B15" s="7">
-        <v>2</v>
-      </c>
-      <c r="C15" s="7">
+      <c r="B15" s="1">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D15" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="E15" s="8">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="E15" s="5">
         <f t="shared" si="1"/>
-        <v>10.400000000000002</v>
+        <v>13.199999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>4</v>
       </c>
-      <c r="B16" s="7">
-        <v>5</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="B16" s="1">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D16" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="E16" s="5">
         <f t="shared" si="1"/>
-        <v>5.200000000000002</v>
+        <v>6.5999999999999979</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>5</v>
       </c>
-      <c r="B17" s="7">
-        <v>7</v>
-      </c>
-      <c r="C17" s="7">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="D17" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="E17" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="10">
-        <v>26</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10">
-        <v>26</v>
-      </c>
-      <c r="E18" s="11"/>
+      <c r="B18" s="7">
+        <v>33</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7">
+        <v>33</v>
+      </c>
+      <c r="E18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5670,74 +5661,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -5749,147 +5740,147 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="9">
         <v>0</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>26</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>1</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="1">
         <f>C12-B13</f>
         <v>15</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="1">
         <f>D18/A17</f>
         <v>5.2</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <f>E12-D13</f>
         <v>20.8</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>2</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="1">
         <f t="shared" ref="C14:C17" si="0">C13-B14</f>
         <v>14</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="1">
         <v>5.2</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="5">
         <f t="shared" ref="E14:E17" si="1">E13-D14</f>
         <v>15.600000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>3</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="1">
         <v>5.2</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="5">
         <f t="shared" si="1"/>
         <v>10.400000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>4</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="1">
         <v>5.2</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="5">
         <f t="shared" si="1"/>
         <v>5.200000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>5</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="1">
         <v>7</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="1">
         <v>5.2</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="7">
         <v>26</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7">
         <v>26</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5918,74 +5909,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -5997,147 +5988,147 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="9">
         <v>0</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>26</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>1</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="1">
         <f>C12-B13</f>
         <v>15</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="1">
         <f>D18/A17</f>
         <v>5.2</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <f>E12-D13</f>
         <v>20.8</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>2</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="1">
         <f t="shared" ref="C14:C17" si="0">C13-B14</f>
         <v>14</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="1">
         <v>5.2</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="5">
         <f t="shared" ref="E14:E17" si="1">E13-D14</f>
         <v>15.600000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>3</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="1">
         <v>5.2</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="5">
         <f t="shared" si="1"/>
         <v>10.400000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>4</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="1">
         <v>5.2</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="5">
         <f t="shared" si="1"/>
         <v>5.200000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>5</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="1">
         <v>7</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="1">
         <v>5.2</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="7">
         <v>26</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7">
         <v>26</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6153,7 +6144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EE2180-2246-4610-AE1D-AAE0719F14CF}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -6166,74 +6157,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -6245,147 +6236,147 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="9">
         <v>0</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>26</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>1</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="1">
         <f>C12-B13</f>
         <v>15</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="1">
         <f>D18/A17</f>
         <v>5.2</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <f>E12-D13</f>
         <v>20.8</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>2</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="1">
         <f t="shared" ref="C14:C17" si="0">C13-B14</f>
         <v>14</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="1">
         <v>5.2</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="5">
         <f t="shared" ref="E14:E17" si="1">E13-D14</f>
         <v>15.600000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>3</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="1">
         <v>5.2</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="5">
         <f t="shared" si="1"/>
         <v>10.400000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>4</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="1">
         <v>5.2</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="5">
         <f t="shared" si="1"/>
         <v>5.200000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>5</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="1">
         <v>7</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="1">
         <v>5.2</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="7">
         <v>26</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7">
         <v>26</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
